--- a/biology/Zoologie/Fundulidae/Fundulidae.xlsx
+++ b/biology/Zoologie/Fundulidae/Fundulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fundulidae forment une famille de poissons au sein de l'ordre des Cyprinodontiformes. Cette famille comprend des poissons dits topminnows par les anglophones, dont certains  poissons d'aquarium très populaires, tels que les killies. Ce sont surtout des poissons d'Amérique du Nord (46 espèces vivant du Yucatan aux îles des Bermudes et de Cuba, en eaux douces ou marines). Tous les membres de cette famille sont de petite taille (moins de 10 cm pour la plupart), hormis le  killy géant (ou Fundulus grandissimus) et le Fundulus catenatus  ("northern studfish" pour les anglophones), dont la taille atteint 20 cm.
 </t>
@@ -511,7 +523,9 @@
           <t>Critères de distinction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Os de la mâchoire maxillaire, qui est tordu au lieu d'être droit.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase 4 genres[1] (05/2015) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase 4 genres (05/2015) :
 genre Adinia Girard, 1859
 genre Fundulus Lacépède, 1803
 genre Leptolucania G. S. Myers, 1924
@@ -576,12 +592,14 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase 44 espèces[2] classées en 4 genres[1] :
-Genre Adinia[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase 44 espèces classées en 4 genres :
+Genre Adinia
 Adinia xenica (Jordan &amp; Gilbert, 1882).
-Genre Fundulus[4]
+Genre Fundulus
 Fundulus albolineatus Gilbert, 1891.
 Fundulus auroguttatus (Hay, 1885).
 Fundulus bermudae Günther, 1874.
@@ -623,9 +641,9 @@
 Fundulus stellifer (Jordan, 1877)
 Fundulus waccamensis Hubbs &amp; Raney, 1946
 Fundulus zebrinus Jordan &amp; Gilbert, 1883
-Genre Leptolucania[5]
+Genre Leptolucania
 Leptolucania ommata (Jordan, 1884)
-Genre Lucania[6]
+Genre Lucania
 Lucania goodei Jordan, 1880.
 Lucania interioris Hubbs &amp; Miller, 1965.
 Lucania parva (Baird &amp; Girard, 1855).
